--- a/data/income_statement/1digit/size/C_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/C_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>C-Manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>C-Manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>52088969.53362</v>
+        <v>54956245.76207</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>56218687.1108</v>
+        <v>59391456.48007999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>66391339.97892999</v>
+        <v>69624611.01824</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>69878559.31467</v>
+        <v>73871528.08199002</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>96478624.76143</v>
+        <v>101749742.94937</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>104807993.3274</v>
+        <v>110737400.54999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>109955043.25139</v>
+        <v>118444453.70958</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>114409839.7501</v>
+        <v>124452544.80569</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>128892551.58392</v>
+        <v>140446325.42122</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>244733681.61708</v>
+        <v>252124769.96339</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>264220799.81142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>277230935.00781</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>316607200.199</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>44492522.36668001</v>
+        <v>46764345.43673</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>48988859.35278</v>
+        <v>51619118.56006</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>58133098.15587001</v>
+        <v>60799360.59987</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>61556965.72171001</v>
+        <v>64951583.0717</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>84361437.74859001</v>
+        <v>88617156.76576999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>91734148.14462002</v>
+        <v>96708716.26735</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>96803808.13801</v>
+        <v>103989759.66895</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>100444061.86012</v>
+        <v>108960352.90024</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>112722901.43189</v>
+        <v>122468275.18981</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>207829921.50556</v>
+        <v>213509745.57044</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>220688611.2161801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>231161820.82585</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>264990408.537</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6991830.932370001</v>
+        <v>7520496.124729998</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6607978.280569999</v>
+        <v>7101347.283989999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7548520.26772</v>
+        <v>8055853.70542</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7634172.603590001</v>
+        <v>8167229.248279999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>11133238.22244</v>
+        <v>12040261.30265</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>12060170.45439</v>
+        <v>12914290.88366</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11955708.55653</v>
+        <v>13117325.57746</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>12580335.93565</v>
+        <v>13891073.22184</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>14650652.81578</v>
+        <v>16214420.69851</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>33993626.04052</v>
+        <v>35582710.20697</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>40210219.99752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>42615715.64415</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>47630870.703</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>604616.23457</v>
+        <v>671404.2006100001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>621849.4774499999</v>
+        <v>670990.6360299998</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>709721.55534</v>
+        <v>769396.71295</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>687420.9893699999</v>
+        <v>752715.7620099999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>983948.7904000003</v>
+        <v>1092324.88095</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1013674.72839</v>
+        <v>1114393.39898</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1195526.55685</v>
+        <v>1337368.46317</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1385441.95433</v>
+        <v>1601118.68361</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1518997.33625</v>
+        <v>1763629.5329</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2910134.071</v>
+        <v>3032314.18598</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3321968.59772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3453398.53781</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3985920.959</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>809750.5554999999</v>
+        <v>895356.0557599999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>772565.6746300003</v>
+        <v>845118.3915800001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>884402.2426999999</v>
+        <v>964900.70805</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>888996.80436</v>
+        <v>996373.9436699999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1229289.30477</v>
+        <v>1381266.06123</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1282228.73917</v>
+        <v>1419295.04782</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1364333.81462</v>
+        <v>1641535.42347</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1403307.84245</v>
+        <v>1662339.85044</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1672842.59563</v>
+        <v>2097590.33863</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4221317.45322</v>
+        <v>4575027.53008</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5431631.74531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6026034.769859999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7013405.651</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>561415.77816</v>
+        <v>612051.73491</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>513265.45542</v>
+        <v>563096.7722599999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>614755.1950299997</v>
+        <v>666465.6596</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>635577.20176</v>
+        <v>698426.9911599999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>851145.3546699998</v>
+        <v>936918.0133900001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>928138.36095</v>
+        <v>1004000.67881</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>985270.5765500001</v>
+        <v>1109435.66011</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1058016.4654</v>
+        <v>1210995.36026</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1323731.14447</v>
+        <v>1604490.35899</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3174206.74651</v>
+        <v>3364913.04035</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4388080.853850001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4842557.948660001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5660153.191</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>200074.5529299999</v>
+        <v>227491.83867</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>206272.92722</v>
+        <v>226199.91262</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>212574.91651</v>
+        <v>236078.32445</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>200523.1056</v>
+        <v>240318.27299</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>292396.12707</v>
+        <v>353568.83915</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>264842.83616</v>
+        <v>319127.25786</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>283095.1340200001</v>
+        <v>366447.1216700001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>243489.79775</v>
+        <v>306044.07825</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>242751.69595</v>
+        <v>314977.78228</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>721321.4663000001</v>
+        <v>771217.8656</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>715873.2052800001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>800856.7354100001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1010996.388</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>48260.22441</v>
+        <v>55812.48217999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>53027.29199</v>
+        <v>55821.7067</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>57072.13116000001</v>
+        <v>62356.724</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>52896.497</v>
+        <v>57628.67952</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>85747.82303</v>
+        <v>90779.20869</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>89247.54206000002</v>
+        <v>96167.11115000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>95968.10404999999</v>
+        <v>165652.64169</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>101801.5793</v>
+        <v>145300.41193</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>106359.75521</v>
+        <v>178122.19736</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>325789.24041</v>
+        <v>438896.62413</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>327677.6861800001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>382620.08579</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>342256.072</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>51279218.97811998</v>
+        <v>54060889.70631</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>55446121.43617</v>
+        <v>58546338.0885</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>65506937.73622999</v>
+        <v>68659710.31019001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>68989562.51030999</v>
+        <v>72875154.13832001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>95249335.45665999</v>
+        <v>100368476.88814</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>103525764.58823</v>
+        <v>109318105.50217</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>108590709.43677</v>
+        <v>116802918.28611</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>113006531.90765</v>
+        <v>122790204.95525</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>127219708.98829</v>
+        <v>138348735.08259</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>240512364.16386</v>
+        <v>247549742.43331</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>258789168.06611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>271204900.23795</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>309593794.548</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>43384440.46682999</v>
+        <v>45709583.35535</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>47049300.25415001</v>
+        <v>49681354.29962</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>55704905.02302</v>
+        <v>58381912.93907001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>58520776.16683</v>
+        <v>61863009.73117999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>80781899.63417</v>
+        <v>85111431.01359999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>87736055.04411</v>
+        <v>92671519.82944</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>91826707.76302998</v>
+        <v>98769965.93813001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>95474605.37507001</v>
+        <v>103701258.99213</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>107930681.57394</v>
+        <v>117235550.80243</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>205389749.53391</v>
+        <v>211201726.49075</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>220391991.53187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>231062249.07192</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>264290257.136</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>29314970.98086</v>
+        <v>31279322.26290999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>31965234.87531999</v>
+        <v>34184057.39751001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>37604481.28685</v>
+        <v>39821709.71701001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>39053391.53607</v>
+        <v>41743255.63327</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>55491798.56306001</v>
+        <v>59154707.32281</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>59831352.79617999</v>
+        <v>63793299.45094</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>62087261.62018999</v>
+        <v>67594602.90206</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>63615229.53537999</v>
+        <v>70073413.94746</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>69852367.14131999</v>
+        <v>77012527.59262002</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>143178245.64769</v>
+        <v>147894389.95956</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>152804259.98903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>160220187.87304</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>176655202.028</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>11112853.78187</v>
+        <v>11308112.34301</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>11725157.87774</v>
+        <v>11980223.75408</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>14321536.91863</v>
+        <v>14622876.1412</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>15137002.65912</v>
+        <v>15571344.51056</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>19881914.21791</v>
+        <v>20349250.98562</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>21957522.39879</v>
+        <v>22650203.70099</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>23232496.50438</v>
+        <v>24313149.91577</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>24290725.85887</v>
+        <v>25690217.39996</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>29448689.36664</v>
+        <v>31103153.00289</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>49941799.7536</v>
+        <v>50798105.05488</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>53622271.85705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>56322767.51821999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>72206992.99600001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2825965.68466</v>
+        <v>2964473.57636</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3200008.71443</v>
+        <v>3349875.27686</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3600086.85871</v>
+        <v>3745788.82012</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4184050.8927</v>
+        <v>4364674.359130001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5169816.061810001</v>
+        <v>5340293.22536</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5659026.978529999</v>
+        <v>5902178.83276</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6167268.441509999</v>
+        <v>6485699.315630001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7180126.06054</v>
+        <v>7475278.375530001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8173578.405109999</v>
+        <v>8588934.502040001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>11404700.5147</v>
+        <v>11599971.97814</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>12888908.68784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13404664.80914</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>14163088.931</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>130650.01944</v>
+        <v>157675.17307</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>158898.78666</v>
+        <v>167197.87117</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>178799.95883</v>
+        <v>191538.26074</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>146331.07894</v>
+        <v>183735.22822</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>238370.79139</v>
+        <v>267179.47981</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>288152.87061</v>
+        <v>325837.84475</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>339681.19695</v>
+        <v>376513.80467</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>388523.92028</v>
+        <v>462349.2691800001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>456046.66087</v>
+        <v>530935.70488</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>865003.6179199999</v>
+        <v>909259.49817</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1076550.99795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1114628.87152</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1264973.181</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7894778.51129</v>
+        <v>8351306.350960002</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>8396821.182020001</v>
+        <v>8864983.788880002</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9802032.71321</v>
+        <v>10277797.37112</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>10468786.34348</v>
+        <v>11012144.40714</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>14467435.82249</v>
+        <v>15257045.87454</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>15789709.54412</v>
+        <v>16646585.67273</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>16764001.67374</v>
+        <v>18032952.34798</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>17531926.53258</v>
+        <v>19088945.96312</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>19289027.41435</v>
+        <v>21113184.28016</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>35122614.62995</v>
+        <v>36348015.94255999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>38397176.53424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>40142651.16603</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>45303537.412</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5620737.006270001</v>
+        <v>6006192.495599999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>6033395.783340001</v>
+        <v>6446083.50065</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>6977625.401379998</v>
+        <v>7420618.90233</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>7545642.407390001</v>
+        <v>8043691.13841</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>10225485.26381</v>
+        <v>10736618.17278</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>11080699.53141</v>
+        <v>11590123.84289</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>11746043.54526</v>
+        <v>12500161.89604</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>12706889.8586</v>
+        <v>13594463.02683</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>13538950.02987</v>
+        <v>14521873.73994</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>21904671.59488999</v>
+        <v>22256713.17771</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>24742106.79173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>25505897.78009</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>26880005.7</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>40801.11844</v>
+        <v>48421.90361000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>39607.39586</v>
+        <v>43194.33355</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>42166.9149</v>
+        <v>60143.89309</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>57785.40533</v>
+        <v>70043.75300000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>72412.16975</v>
+        <v>76184.98676999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>88653.28138000001</v>
+        <v>96362.24404000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>76236.83105000001</v>
+        <v>84681.87221</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>89443.86354000002</v>
+        <v>100638.23136</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>72725.67862000001</v>
+        <v>86936.47816</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>173327.5353</v>
+        <v>182717.32423</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>209781.10672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>224041.26805</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>234475.973</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1546276.86927</v>
+        <v>1671190.48079</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1673594.50095</v>
+        <v>1810243.01837</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1909805.13609</v>
+        <v>2069945.34799</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2032388.849459999</v>
+        <v>2211847.43362</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2837339.1927</v>
+        <v>3060232.24244</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3051065.35825</v>
+        <v>3270203.610720001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3101507.68713</v>
+        <v>3381110.29589</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3280918.80526</v>
+        <v>3659291.15649</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3445281.63822</v>
+        <v>3832412.47851</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6823377.84875</v>
+        <v>7027379.544639999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7559208.75119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7963508.556759999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7869865.588</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4033659.01856</v>
+        <v>4286580.111199999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4320193.88653</v>
+        <v>4592646.14873</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>5025653.35039</v>
+        <v>5290529.661249999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>5455468.1526</v>
+        <v>5761799.951790001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>7315733.90136</v>
+        <v>7600200.94357</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>7940980.89178</v>
+        <v>8223557.98813</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>8568299.027079999</v>
+        <v>9034369.727940001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9336527.189800002</v>
+        <v>9834533.638980001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>10020942.71303</v>
+        <v>10602524.78327</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>14907966.21084</v>
+        <v>15046616.30884</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>16973116.93382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17318347.95528</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>18775664.139</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2274041.50502</v>
+        <v>2345113.855359999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2363425.39868</v>
+        <v>2418900.28823</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2824407.31183</v>
+        <v>2857178.468789999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2923143.93609</v>
+        <v>2968453.26873</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4241950.558680001</v>
+        <v>4520427.70176</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4709010.01271</v>
+        <v>5056461.829840001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5017958.12848</v>
+        <v>5532790.451939999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4825036.673979999</v>
+        <v>5494482.93629</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5750077.38448</v>
+        <v>6591310.540220001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13217943.03506</v>
+        <v>14091302.76485</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13655069.74251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14636753.38594</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>18423531.712</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>690641.46391</v>
+        <v>1035216.36248</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>593448.87315</v>
+        <v>947848.76249</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>747707.92641</v>
+        <v>1389454.46437</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>551026.59355</v>
+        <v>940954.9809399999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1105977.74938</v>
+        <v>1659521.45345</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1035061.59725</v>
+        <v>1351120.75061</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1604952.76733</v>
+        <v>2201808.58383</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1461834.75596</v>
+        <v>2090946.26986</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1519336.59255</v>
+        <v>2130686.97393</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8796279.028969999</v>
+        <v>10588517.19163</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5292036.686160001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6536673.509980001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10553945.622</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>10544.15841</v>
+        <v>40000.78744</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>7914.52616</v>
+        <v>38305.48898</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4376.07776</v>
+        <v>31566.31856</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5584.080629999999</v>
+        <v>35266.33749000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>21809.34438</v>
+        <v>55342.90914</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>10120.25375</v>
+        <v>16533.39631</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>17326.6275</v>
+        <v>25062.17984</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>14935.15448</v>
+        <v>53301.20722</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>21656.1638</v>
+        <v>42436.69383</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>49799.36456</v>
+        <v>199566.46981</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>57389.30088000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>210062.24865</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>120036.442</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>361.83931</v>
+        <v>1143.2815</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>379.13923</v>
+        <v>4578.02891</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>454.7410299999999</v>
+        <v>115712.73376</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>489.5827400000001</v>
+        <v>1089.45973</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2673.534110000001</v>
+        <v>18223.10893</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4456.767400000001</v>
+        <v>17654.38502</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2123.18066</v>
+        <v>3647.10353</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4355.840730000001</v>
+        <v>20139.60151</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1384.70951</v>
+        <v>7650.5875</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>17988.87707</v>
+        <v>13673.61907</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>32572.20019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>138058.53121</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>11774.729</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>73638.85126</v>
+        <v>109640.73303</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>61377.61631999999</v>
+        <v>94362.81630999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>66177.46562</v>
+        <v>97819.91738999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>77842.45205000002</v>
+        <v>109827.0416</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>98221.52112</v>
+        <v>130818.96877</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>114022.86507</v>
+        <v>160438.97239</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>128189.17904</v>
+        <v>177928.21064</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>133176.02697</v>
+        <v>170618.3988</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>166158.19257</v>
+        <v>233451.58655</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>497235.35185</v>
+        <v>536239.5450299999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>593716.72882</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>695986.53736</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>531441.069</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>11076.85355</v>
+        <v>10192.39976</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>10144.27346</v>
+        <v>7510.599840000002</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>10463.11081</v>
+        <v>8490.262840000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>11333.32763</v>
+        <v>11246.70268</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>17368.92977</v>
+        <v>18353.11837</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>17474.22471</v>
+        <v>19058.86129</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14906.47961</v>
+        <v>19935.44529</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>15651.49052</v>
+        <v>19606.88508</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>19217.01656</v>
+        <v>20497.23616</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>53302.55789</v>
+        <v>58135.95030999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>27358.25974</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>33395.90888</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>68179.034</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>19333.44627000001</v>
+        <v>28087.0749</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>12426.01746</v>
+        <v>61342.33458</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>19360.04941</v>
+        <v>86687.74158000002</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>14419.08251</v>
+        <v>25559.67742</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>24434.52385</v>
+        <v>33776.47966</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>28943.29588</v>
+        <v>27847.5386</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>30035.19681</v>
+        <v>51308.61517000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>30465.48984999999</v>
+        <v>44801.24764000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>26582.19117</v>
+        <v>29674.66208</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>50767.681</v>
+        <v>50645.56647999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>132109.02495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>162104.4818</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>157929.965</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>8897.201319999998</v>
+        <v>14940.97148</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7487.135149999999</v>
+        <v>5424.596259999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>8942.160149999998</v>
+        <v>7572.06466</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>9113.141089999999</v>
+        <v>27438.10351</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>8439.124750000001</v>
+        <v>95182.20493000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>10943.64812</v>
+        <v>31276.12867</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16740.596</v>
+        <v>19990.8938</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>10966.76632</v>
+        <v>80374.50911</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>18132.71918</v>
+        <v>40121.7012</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>54035.31410000001</v>
+        <v>54579.27527</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>48464.70611999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>69708.51944999998</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>92361.595</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>382858.64785</v>
+        <v>600161.1421200001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>311815.32678</v>
+        <v>514458.17112</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>446906.11064</v>
+        <v>778159.3220800001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>238501.39344</v>
+        <v>486498.4488300001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>655547.0820200001</v>
+        <v>919075.4297300001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>539302.8972700001</v>
+        <v>747098.8966399999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1060226.90685</v>
+        <v>1520990.26167</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>852652.41727</v>
+        <v>1228474.26077</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>841499.5313500001</v>
+        <v>1281600.45205</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7155882.60881</v>
+        <v>8691630.878070001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3453250.35301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4133019.101509999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8250974.238</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2949.686589999999</v>
+        <v>3462.44719</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1076.3711</v>
+        <v>2473.88994</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1634.51269</v>
+        <v>2598.30676</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1886.75439</v>
+        <v>3754.002860000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>3799.50587</v>
+        <v>5000.599810000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3635.88774</v>
+        <v>5307.27499</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3472.11805</v>
+        <v>4283.48401</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3590.98711</v>
+        <v>4582.43685</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>4813.963970000001</v>
+        <v>5577.451359999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>23473.34284</v>
+        <v>30446.4744</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>31047.75744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>35895.76334</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>26285.85</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>6949.877100000001</v>
+        <v>6540.53145</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>10593.1868</v>
+        <v>9422.34851</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>13278.37905</v>
+        <v>12908.4449</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8468.466869999998</v>
+        <v>8354.88559</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>11369.30148</v>
+        <v>11899.01144</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>17269.58377</v>
+        <v>10715.73313</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>13606.29691</v>
+        <v>13572.64784</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>18137.21274</v>
+        <v>20582.03882</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>24265.04441</v>
+        <v>31158.79704</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>98977.47026</v>
+        <v>92055.89096999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>33890.32607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>35982.41521</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>114316.766</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>174030.9022499999</v>
+        <v>221046.99361</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>170235.28069</v>
+        <v>209970.48804</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>176115.31925</v>
+        <v>247939.35184</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>183388.3122</v>
+        <v>231920.32123</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>262314.88203</v>
+        <v>371849.62267</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>288892.17354</v>
+        <v>315189.56357</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>318326.1859</v>
+        <v>365089.74204</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>377903.36997</v>
+        <v>448465.68406</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>395627.06003</v>
+        <v>438517.80616</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>794816.46059</v>
+        <v>861543.52222</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>882238.02894</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1022460.00257</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1180645.934</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>641343.20407</v>
+        <v>881473.63495</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>504997.56256</v>
+        <v>736997.7730299998</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>655693.8890200001</v>
+        <v>998018.3973599999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>477570.40497</v>
+        <v>687395.7078099999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1026904.64754</v>
+        <v>1495390.66651</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>907210.3018400001</v>
+        <v>1166565.47155</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1371385.57436</v>
+        <v>1903071.08676</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1246231.47118</v>
+        <v>1790118.38314</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1211515.68462</v>
+        <v>1823143.4437</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8512985.347439999</v>
+        <v>10414490.36631</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4620554.944999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5326280.42461</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9023566.812000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>29333.57675</v>
+        <v>31685.22569</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>29212.58901999999</v>
+        <v>28365.64494000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>29230.78638</v>
+        <v>31561.33774</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>28572.4319</v>
+        <v>31036.43069</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>36131.43567</v>
+        <v>40483.61876</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>36012.66983000001</v>
+        <v>39718.55787000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>33742.01693999999</v>
+        <v>38362.32997999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>37116.29777999999</v>
+        <v>41496.26918</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>44183.73892</v>
+        <v>52963.19385</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>102132.84131</v>
+        <v>107894.45946</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>124394.21148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>130055.36936</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>146366.303</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>120913.13941</v>
+        <v>140478.57644</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>78404.79698999999</v>
+        <v>84919.47738000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>71114.62922000002</v>
+        <v>73934.76633999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>97741.91391000002</v>
+        <v>114183.68261</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>157481.71438</v>
+        <v>283898.91559</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>152957.14307</v>
+        <v>177640.51382</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>186701.1657</v>
+        <v>214912.13344</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>252199.57625</v>
+        <v>276940.88973</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>158697.96884</v>
+        <v>274825.52157</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>456255.7822</v>
+        <v>468056.28064</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>522989.8208200001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>580023.20574</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>491112.364</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>4174.07654</v>
+        <v>6147.74921</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>4116.7996</v>
+        <v>5106.97894</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>4897.63942</v>
+        <v>3893.33734</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2752.67155</v>
+        <v>2117.85312</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>8377.59576</v>
+        <v>5587.96937</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>8253.705830000001</v>
+        <v>5024.49765</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>3418.96995</v>
+        <v>7742.10384</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>8305.89127</v>
+        <v>6384.85746</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>3696.455469999999</v>
+        <v>3364.26915</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10341.8101</v>
+        <v>30879.6921</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>44974.32201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>30613.99032</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>37647.677</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>399009.8674500001</v>
+        <v>591495.0882799999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>308885.99565</v>
+        <v>502723.4427899999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>451948.03188</v>
+        <v>770556.4585100001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>243825.13815</v>
+        <v>435675.6624999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>657555.24084</v>
+        <v>1025832.03795</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>583372.3623899999</v>
+        <v>804512.3113099999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1016083.33522</v>
+        <v>1495934.86301</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>788188.3092700001</v>
+        <v>1271548.68528</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>873272.9856300001</v>
+        <v>1344903.91506</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7539775.90591</v>
+        <v>9393375.78149</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3479896.666149999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4182588.241060001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7606663.97</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>3940.43753</v>
+        <v>3124.12575</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1677.46929</v>
+        <v>2346.61124</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1835.51762</v>
+        <v>2683.86796</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2270.23506</v>
+        <v>2943.46013</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>5384.11254</v>
+        <v>6600.51072</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3593.53274</v>
+        <v>5156.497499999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>4704.215029999999</v>
+        <v>3962.4771</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3610.12305</v>
+        <v>4496.513979999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>4587.470250000001</v>
+        <v>5810.959849999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>30881.35419999999</v>
+        <v>39704.65119999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>30958.39237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>34570.31990000001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>31608.325</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>7721.373189999999</v>
+        <v>7187.003500000001</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>10683.51021</v>
+        <v>10446.14483</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>17464.24311</v>
+        <v>17555.5698</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>6073.26049</v>
+        <v>6367.456069999999</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>9665.35331</v>
+        <v>9801.66058</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>10145.50217</v>
+        <v>10197.87496</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>10043.37826</v>
+        <v>11686.8044</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>8078.75635</v>
+        <v>8999.221869999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>10935.85283</v>
+        <v>12037.28492</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>64471.29156000001</v>
+        <v>68934.65463999999</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>20846.87995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>26453.50187</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>50617.649</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>76250.73319999999</v>
+        <v>101355.86608</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>72016.40179999998</v>
+        <v>103089.47291</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>79203.04139000001</v>
+        <v>97833.05966999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>96334.75391</v>
+        <v>95071.16269</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>152309.1950399999</v>
+        <v>123185.95354</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>112875.38581</v>
+        <v>124315.21844</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>116692.49326</v>
+        <v>130470.37499</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>148732.51721</v>
+        <v>180251.94564</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>116141.21268</v>
+        <v>129238.2993</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>309126.36216</v>
+        <v>305644.84678</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>396494.65222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>341975.7963600001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>659550.524</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>844947.42638</v>
+        <v>1137638.24592</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>648253.84821</v>
+        <v>888029.5537599999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>764197.48256</v>
+        <v>1132732.26353</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>910291.63059</v>
+        <v>1151759.30754</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1284684.89973</v>
+        <v>1693086.18211</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1438374.41265</v>
+        <v>1765819.70433</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1627570.05951</v>
+        <v>2069247.7054</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1786464.91264</v>
+        <v>2424324.62132</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1830916.18132</v>
+        <v>2535238.837409999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5602242.544909999</v>
+        <v>6237163.122359999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5603964.75063</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6524503.33535</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5683717.314</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>801707.0586700001</v>
+        <v>1025640.37653</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>616926.3372299999</v>
+        <v>817428.7170599999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>731216.21315</v>
+        <v>990512.2651900001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>872460.5190299999</v>
+        <v>1085803.98968</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1215489.93894</v>
+        <v>1596686.63964</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1370555.02845</v>
+        <v>1680944.00432</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1542233.94267</v>
+        <v>1958682.59145</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1702772.12161</v>
+        <v>2281238.40318</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1749513.03579</v>
+        <v>2371415.97822</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5288641.01879</v>
+        <v>5912875.53263</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5330663.47452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6162601.6565</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5210888.676</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>43240.36771</v>
+        <v>111997.86939</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>31327.51098</v>
+        <v>70600.83670000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>32981.26941</v>
+        <v>142219.99834</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>37831.11156</v>
+        <v>65955.31786</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>69194.96079</v>
+        <v>96399.54247</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>67819.3842</v>
+        <v>84875.70000999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>85336.11684</v>
+        <v>110565.11395</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>83692.79102999999</v>
+        <v>143086.21814</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>81403.14552999999</v>
+        <v>163822.85919</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>313601.5261200001</v>
+        <v>324287.58973</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>273301.27611</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>361901.67885</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>472828.638</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1478392.33848</v>
+        <v>1361218.33697</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1803622.86106</v>
+        <v>1741721.72393</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2152223.86666</v>
+        <v>2115882.27227</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2086308.49408</v>
+        <v>2070253.23432</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3036338.760789999</v>
+        <v>2991472.30659</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3398486.89547</v>
+        <v>3475197.40457</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3623955.261940001</v>
+        <v>3762280.24361</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3254175.04612</v>
+        <v>3370986.20169</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4226982.11109</v>
+        <v>4363615.233039999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7898994.171680002</v>
+        <v>8028166.46781</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8722586.733039999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9322643.135960001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>14270193.208</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>323347.6522299999</v>
+        <v>524458.78191</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>334279.90145</v>
+        <v>439455.86391</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>412624.11622</v>
+        <v>511056.1847999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>412798.9660799999</v>
+        <v>483168.81876</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>644496.4248999999</v>
+        <v>717268.3097699998</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>672811.0546099999</v>
+        <v>978259.15037</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>673950.4693299999</v>
+        <v>845861.84889</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>829691.7373100001</v>
+        <v>1379123.91952</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>905588.697</v>
+        <v>1346812.94881</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1654278.37941</v>
+        <v>1808724.81719</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2024208.75018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2238128.217389999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2548453.693</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>9090.387409999998</v>
+        <v>11043.23166</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>6647.09095</v>
+        <v>31511.17871</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>6220.04764</v>
+        <v>6319.14355</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8910.94268</v>
+        <v>14156.86434</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>13957.8308</v>
+        <v>13690.2989</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7855.894520000002</v>
+        <v>10616.90349</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>9810.653320000001</v>
+        <v>17645.98269</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>17455.92003</v>
+        <v>15670.17411</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>11911.78007</v>
+        <v>19639.23683</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>24831.3333</v>
+        <v>59199.30162</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20002.70799</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>43865.78258000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>30973.78</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>314257.2648200001</v>
+        <v>513415.5502500001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>327632.8105</v>
+        <v>407944.6851999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>406404.06858</v>
+        <v>504737.04125</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>403888.0234000001</v>
+        <v>469011.95442</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>630538.5941</v>
+        <v>703578.01087</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>664955.1600899999</v>
+        <v>967642.2468800001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>664139.81601</v>
+        <v>828215.8661999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>812235.81728</v>
+        <v>1363453.74541</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>893676.9169300001</v>
+        <v>1327173.71198</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1629447.04611</v>
+        <v>1749525.51557</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2004206.04219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2194262.43481</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2517479.913</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>351911.35751</v>
+        <v>552373.4913199999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>331328.0688500001</v>
+        <v>420499.81403</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2123833.55921</v>
+        <v>2411308.09831</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>425593.85466</v>
+        <v>482597.46069</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>576052.9302599999</v>
+        <v>591618.03415</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1701801.43766</v>
+        <v>1784483.82888</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>624918.72094</v>
+        <v>747258.4401799999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2142304.17842</v>
+        <v>2512967.24464</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>722725.1911400001</v>
+        <v>896203.1558399999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2959273.07745</v>
+        <v>3168725.542129999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1555488.24371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1655616.96992</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2181084.681</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>34492.95838</v>
+        <v>85826.00689999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>25947.34956</v>
+        <v>61305.99865999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>28355.8306</v>
+        <v>59445.52082000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>37265.24511</v>
+        <v>72087.0024</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>42544.60372</v>
+        <v>72216.48872999998</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>48105.64691999999</v>
+        <v>86152.47011999998</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>53038.80602000001</v>
+        <v>87052.46491</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>71277.92679000001</v>
+        <v>104180.53173</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>51790.58005000001</v>
+        <v>77186.10953</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>98735.88200999999</v>
+        <v>152090.28024</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>141241.41948</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>215436.3515</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>243297</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>26222.61283</v>
+        <v>33876.90252</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>17641.5187</v>
+        <v>22241.04802</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>26247.75118</v>
+        <v>28607.83516</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>23993.29687</v>
+        <v>27697.64811</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>27729.83679</v>
+        <v>29309.4594</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>35518.89706</v>
+        <v>44592.27300000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>30332.18763</v>
+        <v>57210.56716</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>41980.32602</v>
+        <v>52491.35545</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>22621.40997</v>
+        <v>39590.83004999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>51586.51854</v>
+        <v>50046.66385</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>61958.58461000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>66107.03019</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>128163.414</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>291195.7863</v>
+        <v>432670.5819</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>287739.20059</v>
+        <v>336952.7673499999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2069229.97743</v>
+        <v>2323254.74233</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>364335.31268</v>
+        <v>382812.81018</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>505778.4897500001</v>
+        <v>490092.08602</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1618176.89368</v>
+        <v>1653739.08576</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>541547.72729</v>
+        <v>602995.40811</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2029045.92561</v>
+        <v>2356295.35746</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>648313.20112</v>
+        <v>779426.2162599999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2808950.676900001</v>
+        <v>2966588.598040001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1352288.23962</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1374073.58823</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1809624.267</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1449828.6332</v>
+        <v>1333303.62756</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1806574.69366</v>
+        <v>1760677.77381</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>441014.42367</v>
+        <v>215630.3587599999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2073513.605500001</v>
+        <v>2070824.59239</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3104782.25543</v>
+        <v>3117122.58221</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2369496.512420001</v>
+        <v>2668972.72606</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3672987.010330001</v>
+        <v>3860883.652320001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1941562.60501</v>
+        <v>2237142.87657</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4409845.61695</v>
+        <v>4814225.026010001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>6593999.47364</v>
+        <v>6668165.74287</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9191307.23951</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9905154.38343</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>14637562.22</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>369068.64494</v>
+        <v>387246.35915</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>409827.1619700001</v>
+        <v>427487.97724</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>485218.4317000001</v>
+        <v>513701.6818499999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>491478.85174</v>
+        <v>518192.51623</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>718647.07865</v>
+        <v>762479.9431299999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>760090.3171300001</v>
+        <v>798291.5491599998</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>837215.57705</v>
+        <v>897592.78473</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>833822.4792300001</v>
+        <v>899770.5874699999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>945936.9351</v>
+        <v>1019391.75092</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1997485.77052</v>
+        <v>2057526.06966</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2180615.4588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2276383.380189999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3166392.937</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1080759.98826</v>
+        <v>946057.2684100001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1396747.53169</v>
+        <v>1333189.79657</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-44204.00802999995</v>
+        <v>-298071.3230900001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1582034.75376</v>
+        <v>1552632.07616</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2386135.17678</v>
+        <v>2354642.639080001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1609406.19529</v>
+        <v>1870681.1769</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2835771.43328</v>
+        <v>2963290.86759</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1107740.12578</v>
+        <v>1337372.2891</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3463908.68185</v>
+        <v>3794833.275090001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4596513.70312</v>
+        <v>4610639.67321</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>7010691.780710001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7628771.003239999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11471169.283</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>29228</v>
+        <v>26442</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>30450</v>
+        <v>27187</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>32320</v>
+        <v>28949</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>33573</v>
+        <v>30052</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>38285</v>
+        <v>33233</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>39930</v>
+        <v>34267</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>41861</v>
+        <v>35717</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>44131</v>
+        <v>36708</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>46470</v>
+        <v>38316</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>37646</v>
+        <v>33791</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>38301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>34094</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>36160</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>